--- a/biology/Botanique/Ficus_benjamina/Ficus_benjamina.xlsx
+++ b/biology/Botanique/Ficus_benjamina/Ficus_benjamina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus benjamina est une espèce de la famille des Moraceae d'origine indienne et plus généralement asiatique et océanique. Certaines variétés sont appelées figuier pleureur. Étymologiquement, l'adjectif benjamina est à rapprocher de « Banian » (voir Banian du Pacifique ou Figuier des banians).
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Feuilles
-Les feuilles sont simples, vernissées, acuminées.
-Fleurs
-Fruits
-Les fruits sont orange à maturité.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples, vernissées, acuminées.
 </t>
         </is>
       </c>
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Toxicité</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le latex blanc (sève) est toxique pour les jeunes enfants, les chiens et les chats. Il contient notamment une enzyme protéolytique et du psoralène[1],[2].
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont orange à maturité.
 </t>
         </is>
       </c>
@@ -575,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La multiplication par bouturage est facile[3].
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latex blanc (sève) est toxique pour les jeunes enfants, les chiens et les chats. Il contient notamment une enzyme protéolytique et du psoralène,.
 </t>
         </is>
       </c>
@@ -606,10 +627,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La multiplication par bouturage est facile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ficus_benjamina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ficus_benjamina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ficus benjamina var. benjamina
 Ficus benjamina var. comosa
